--- a/1 GESTION/Documentacion/site/content/pages/1.BASIS/IMPRESORAS/Copia de Listado de Impresoras NUEVO.xlsx
+++ b/1 GESTION/Documentacion/site/content/pages/1.BASIS/IMPRESORAS/Copia de Listado de Impresoras NUEVO.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciro\Desktop\SAP\1 GESTION\Documentacion\site\content\pages\1.BASIS\IMPRESORAS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8760E4DF-2E23-4C52-94FA-29121F6A79EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="15" yWindow="645" windowWidth="20475" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
-    <sheet r:id="rId2" sheetId="2" name="Hoja2"/>
-    <sheet r:id="rId3" sheetId="3" name="Hoja3"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -354,8 +360,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,22 +391,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -412,10 +416,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -453,71 +457,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -545,7 +549,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -568,11 +572,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -581,13 +585,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -597,7 +601,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -606,7 +610,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -615,7 +619,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -623,10 +627,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -691,26 +695,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="30.42578125" style="2" customWidth="1"/>
+    <col min="2" max="7" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -733,7 +734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -752,7 +753,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>35</v>
@@ -769,8 +770,8 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -786,7 +787,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -803,7 +804,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -820,7 +821,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -837,7 +838,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>52</v>
@@ -852,7 +853,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>54</v>
@@ -869,7 +870,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>58</v>
@@ -884,7 +885,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>60</v>
@@ -899,7 +900,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>63</v>
@@ -914,7 +915,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -931,7 +932,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>68</v>
@@ -946,7 +947,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
@@ -963,7 +964,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>73</v>
@@ -978,7 +979,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>76</v>
@@ -989,7 +990,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>77</v>
@@ -1004,7 +1005,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>79</v>
@@ -1019,7 +1020,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -1036,7 +1037,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>84</v>
@@ -1051,7 +1052,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>86</v>
@@ -1066,7 +1067,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>89</v>
@@ -1081,7 +1082,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>91</v>
@@ -1096,7 +1097,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>93</v>
       </c>
@@ -1113,7 +1114,7 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>96</v>
       </c>
@@ -1130,7 +1131,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>99</v>
       </c>
@@ -1143,7 +1144,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>101</v>
       </c>
@@ -1160,7 +1161,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
@@ -1177,7 +1178,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>104</v>
       </c>
@@ -1194,7 +1195,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>106</v>
@@ -1209,7 +1210,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1218,7 +1219,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1227,7 +1228,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1236,7 +1237,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>108</v>
       </c>
@@ -1257,7 +1258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1265,17 +1266,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1283,7 +1279,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1315,7 +1311,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1329,7 +1325,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1345,7 +1341,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1359,7 +1355,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1373,7 +1369,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1387,7 +1383,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1401,7 +1397,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1421,7 +1417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1429,7 +1425,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1 GESTION/Documentacion/site/content/pages/1.BASIS/IMPRESORAS/Copia de Listado de Impresoras NUEVO.xlsx
+++ b/1 GESTION/Documentacion/site/content/pages/1.BASIS/IMPRESORAS/Copia de Listado de Impresoras NUEVO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciro\Desktop\SAP\1 GESTION\Documentacion\site\content\pages\1.BASIS\IMPRESORAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8760E4DF-2E23-4C52-94FA-29121F6A79EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB40216-B2FF-4DD5-8F9B-65B63415416A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="645" windowWidth="20475" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="117">
   <si>
     <t>Nombre Impresora</t>
   </si>
@@ -105,15 +105,6 @@
     <t>HP LaserJet 1160</t>
   </si>
   <si>
-    <t>Sector</t>
-  </si>
-  <si>
-    <t>Hostname/IP</t>
-  </si>
-  <si>
-    <t>Driver SAP</t>
-  </si>
-  <si>
     <t>CONTABLE</t>
   </si>
   <si>
@@ -354,14 +345,41 @@
     <t>BELGPSFE</t>
   </si>
   <si>
-    <t>29</t>
+    <t>192.168.30.84</t>
+  </si>
+  <si>
+    <t>GESTION DE RECUPERO</t>
+  </si>
+  <si>
+    <t>SECTOR</t>
+  </si>
+  <si>
+    <t>NOMBRE DE IMPRESORA</t>
+  </si>
+  <si>
+    <t>HOSTNAME/IP</t>
+  </si>
+  <si>
+    <t>MODELO LOGICO SAP</t>
+  </si>
+  <si>
+    <t>DRIVER SAP</t>
+  </si>
+  <si>
+    <t>MODELO FISICO</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,19 +387,104 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -390,10 +493,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,561 +830,583 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="2" customWidth="1"/>
-    <col min="2" max="7" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="G9" s="6"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
+      <c r="C11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
+      <c r="C18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
+      <c r="C19" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
+      <c r="C22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
+      <c r="C24" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B28" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C28" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B31" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="C31" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
+      <c r="B35" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="C35" s="9">
+        <v>30</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/1 GESTION/Documentacion/site/content/pages/1.BASIS/IMPRESORAS/Copia de Listado de Impresoras NUEVO.xlsx
+++ b/1 GESTION/Documentacion/site/content/pages/1.BASIS/IMPRESORAS/Copia de Listado de Impresoras NUEVO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciro\Desktop\SAP\1 GESTION\Documentacion\site\content\pages\1.BASIS\IMPRESORAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB40216-B2FF-4DD5-8F9B-65B63415416A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7891C623-E82E-4856-B8E1-DE0C99FF9E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="119">
   <si>
     <t>Nombre Impresora</t>
   </si>
@@ -373,6 +373,12 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>LSMESA3</t>
+  </si>
+  <si>
+    <t>192.168.80.222</t>
   </si>
 </sst>
 </file>
@@ -497,19 +503,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -523,6 +520,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -830,9 +836,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -846,559 +854,575 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="K9" s="11"/>
+      <c r="G9" s="4"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="6"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="6"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="6"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="6"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="8" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C36" s="6">
         <v>30</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="A13:A14"/>
